--- a/stationarity_test/stationarity_test.xlsx
+++ b/stationarity_test/stationarity_test.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\stationarity_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5372D2A7-4EEB-4549-A594-2C0A3065FC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0B87F2-6C65-4519-B4A7-BC43702BADEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="64">
   <si>
     <t>User</t>
   </si>
@@ -85,13 +87,145 @@
   </si>
   <si>
     <t>random</t>
+  </si>
+  <si>
+    <t>Mann-Kendall</t>
+  </si>
+  <si>
+    <t>pvalue</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>increasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no trend </t>
+  </si>
+  <si>
+    <t>In this experiment the whole interaction set was used (Frequency of actions in a particular state is used as input vector)</t>
+  </si>
+  <si>
+    <t>State: (Question/Hypothesis Generation, Geo Plot)</t>
+  </si>
+  <si>
+    <t>State: (Sensemaking /Hypothesis Testing, Geo Plot)</t>
+  </si>
+  <si>
+    <t>decreasing</t>
+  </si>
+  <si>
+    <t>State: (Question/Hypothesis Generation, Bar Chart)</t>
+  </si>
+  <si>
+    <t>State: (Sensemaking /Hypothesis Testing, Bar Chart)</t>
+  </si>
+  <si>
+    <t>Mann-Kendall test on State Question</t>
+  </si>
+  <si>
+    <t>Subtask1</t>
+  </si>
+  <si>
+    <t>Subtask2</t>
+  </si>
+  <si>
+    <t>Subtask 2</t>
+  </si>
+  <si>
+    <t>Mann-Kendall test on State Sensemaking</t>
+  </si>
+  <si>
+    <t>no trend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this experiement I reconfigured what subtask 1 and subtask 2 should be. The goal is to have some sort of similarity between the tasks. </t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>E = There weren't enough actions for this state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This table contains Mann-Kendall trend test on Probability of Staying on the Same action (Calculated based on Previous action history on the same state) </t>
+  </si>
+  <si>
+    <t>Can we explain our findings: It is visible that in 'Sensemaking' the probablity of staying in the same state is increasing in subtask 2 as it should happen because the user is getting matured and not exploring; sticking to same state.</t>
+  </si>
+  <si>
+    <t>Can we explain our findings: 1. There is no fixed pattern in stationarity / non-stationarity in subtask-1s.  But, can see som patterns in Subtask-2's. For example 'Question' state shows decrease in probability for picking action 'same' Because the user wants to go into sensemaking (it's taking them less time to formulate the question)</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>Subtask 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user finds some trends looking at different areas from a high zoom level and comes up with some hypotheses </t>
+  </si>
+  <si>
+    <t>Users zooms into particular locations to see if the trends he/she found contradicts or not.</t>
+  </si>
+  <si>
+    <t>focus is on US cities and Asia</t>
+  </si>
+  <si>
+    <t>User focuses on US and Europe to find pattern of density of checkins</t>
+  </si>
+  <si>
+    <t>Users goal is to find travelers hot-spots (based on #check-ins) Goes through US, Japan and Some popular US cities</t>
+  </si>
+  <si>
+    <t>User tries to figure out on where is the startup is based? Looking through popular US cities LA, SF and NY</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>Which places has most check-ins? (Focus on countries)</t>
+  </si>
+  <si>
+    <t>Which places has most check-ins? (Focus on US popular cities)</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>User finds some patterns and gives hypothesis (popular time for visit, lunch time etc.) going through countries</t>
+  </si>
+  <si>
+    <t>Tests if her hypotheses hold for US cities</t>
+  </si>
+  <si>
+    <t>User focuses on finding information about travellers exploring America and Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takes look at users travelling to other regions like Pacific, Asia etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User focuses on finding information about a single traveller (Who has the most number of check-ins) </t>
+  </si>
+  <si>
+    <t>Wants to find information about users (2nd, 3rd most # check-ins) Initially tried with lowest #of check-ins</t>
+  </si>
+  <si>
+    <t>User is focusing on extracting useful information using hour. (At what time of the day user is doing lot of check-ins?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User is focusing to extract useful information from the Day, Month Bar plot (Which time is popular for traveling?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differnces in increasing / decreasing </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,19 +233,250 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -120,8 +485,166 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,4 +1104,1188 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8779DA-D806-4DD4-878A-515F63DC2E9C}">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.32E-2</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.222</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="E20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78C528E-C5BF-4668-91DE-AA1B3DD6F0ED}">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:G41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="32"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="E5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="H17" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="49"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="49"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="48"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="49"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="46"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="48"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="49"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="46"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="G39" s="41"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="48"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="49"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="46"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="40"/>
+      <c r="G42" s="41"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="48"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="49"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="46"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="40"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="40"/>
+      <c r="G45" s="41"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="48"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="49"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="40"/>
+      <c r="G48" s="41"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="48"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="43"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="49"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:D50"/>
+    <mergeCell ref="E48:G50"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:D44"/>
+    <mergeCell ref="E42:G44"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:G26"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:D47"/>
+    <mergeCell ref="E45:G47"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:D38"/>
+    <mergeCell ref="E36:G38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:D41"/>
+    <mergeCell ref="E39:G41"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:D32"/>
+    <mergeCell ref="E30:G32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:D35"/>
+    <mergeCell ref="E33:G35"/>
+    <mergeCell ref="H9:L14"/>
+    <mergeCell ref="H17:L23"/>
+    <mergeCell ref="B27:D29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="E27:G29"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="B1:E3"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A18:F19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stationarity_test/stationarity_test.xlsx
+++ b/stationarity_test/stationarity_test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\stationarity_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0B87F2-6C65-4519-B4A7-BC43702BADEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1405E689-9A8B-416A-8CC7-94995CB2173B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="111">
   <si>
     <t>User</t>
   </si>
@@ -219,13 +220,154 @@
   </si>
   <si>
     <t xml:space="preserve">differnces in increasing / decreasing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P12 </t>
+  </si>
+  <si>
+    <t>subtask:</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>notrend</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decreasing </t>
+  </si>
+  <si>
+    <t>States</t>
+  </si>
+  <si>
+    <t>Sensemaking</t>
+  </si>
+  <si>
+    <t>6m</t>
+  </si>
+  <si>
+    <t>6m 17s</t>
+  </si>
+  <si>
+    <t>3m 7 s</t>
+  </si>
+  <si>
+    <t>2m 11s</t>
+  </si>
+  <si>
+    <t>7m</t>
+  </si>
+  <si>
+    <t>time spent</t>
+  </si>
+  <si>
+    <t>2m 6s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1m 16s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5m 8s </t>
+  </si>
+  <si>
+    <t>1m 50s</t>
+  </si>
+  <si>
+    <t>1m 19s</t>
+  </si>
+  <si>
+    <t>2m</t>
+  </si>
+  <si>
+    <t>3m 19s</t>
+  </si>
+  <si>
+    <t>3m 37s</t>
+  </si>
+  <si>
+    <t>8m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6m 30s </t>
+  </si>
+  <si>
+    <t>1m 45s</t>
+  </si>
+  <si>
+    <t>2m 50s</t>
+  </si>
+  <si>
+    <t>1m 53s</t>
+  </si>
+  <si>
+    <t>3m 33s</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>10m 14s</t>
+  </si>
+  <si>
+    <t>8m 20s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1m 36s </t>
+  </si>
+  <si>
+    <t>2m 7s</t>
+  </si>
+  <si>
+    <t>4m</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>2m 41s</t>
+  </si>
+  <si>
+    <t>1m 26s</t>
+  </si>
+  <si>
+    <t>3m 40s</t>
+  </si>
+  <si>
+    <t>2m 47s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3m 7s </t>
+  </si>
+  <si>
+    <t>1m 8s</t>
+  </si>
+  <si>
+    <t>9m 18s</t>
+  </si>
+  <si>
+    <t>8m 34</t>
+  </si>
+  <si>
+    <t>5m 30s</t>
+  </si>
+  <si>
+    <t>7m 19s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +389,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,8 +416,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -481,11 +635,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,6 +668,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -528,125 +713,114 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1133,40 +1307,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1474,20 +1648,20 @@
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="E20" s="14" t="s">
+      <c r="C20" s="18"/>
+      <c r="E20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
@@ -1656,7 +1830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78C528E-C5BF-4668-91DE-AA1B3DD6F0ED}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E39" sqref="E39:G41"/>
     </sheetView>
   </sheetViews>
@@ -1671,44 +1845,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="32"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="18"/>
+      <c r="E5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
@@ -1757,13 +1931,13 @@
       <c r="F9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1781,11 +1955,11 @@
       <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1803,11 +1977,11 @@
       <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1825,11 +1999,11 @@
       <c r="F12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1847,11 +2021,11 @@
       <c r="F13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1869,11 +2043,11 @@
       <c r="F14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1893,371 +2067,376 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="H17" s="37" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="H17" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="56" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="39" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
       <c r="I27" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="39" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="39" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="39" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="43"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="46"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="39" t="s">
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="39" t="s">
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="43"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="46"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="39" t="s">
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="39" t="s">
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="41"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="43"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="46"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:D50"/>
-    <mergeCell ref="E48:G50"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:D44"/>
-    <mergeCell ref="E42:G44"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="B1:E3"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A18:F19"/>
+    <mergeCell ref="E33:G35"/>
+    <mergeCell ref="H9:L14"/>
+    <mergeCell ref="H17:L23"/>
+    <mergeCell ref="B27:D29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="E27:G29"/>
     <mergeCell ref="B25:D26"/>
     <mergeCell ref="E25:G26"/>
     <mergeCell ref="A45:A47"/>
@@ -2274,18 +2453,813 @@
     <mergeCell ref="E30:G32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:D35"/>
-    <mergeCell ref="E33:G35"/>
-    <mergeCell ref="H9:L14"/>
-    <mergeCell ref="H17:L23"/>
-    <mergeCell ref="B27:D29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="E27:G29"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="B1:E3"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A18:F19"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:D50"/>
+    <mergeCell ref="E48:G50"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:D44"/>
+    <mergeCell ref="E42:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E3D64C-300E-4A19-BD95-BC2D5FA126C3}">
+  <dimension ref="A3:J35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
+      <c r="B17" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="59"/>
+      <c r="B31" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="62"/>
+      <c r="B35" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stationarity_test/stationarity_test.xlsx
+++ b/stationarity_test/stationarity_test.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\stationarity_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1405E689-9A8B-416A-8CC7-94995CB2173B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B5B617-BF32-4C87-842C-C06275399118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="121">
   <si>
     <t>User</t>
   </si>
@@ -361,6 +362,36 @@
   </si>
   <si>
     <t>7m 19s</t>
+  </si>
+  <si>
+    <t>trend</t>
+  </si>
+  <si>
+    <t>no-trend</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>increasing  - higher probability of user staying in the Sensmaking State</t>
+  </si>
+  <si>
+    <t>decreasing - higher probability of user staying in the Question State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Sensemaking, same), (Question, change) -&gt; +1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Question, Same), (Sensemaking, Change) -&gt; -1 </t>
+  </si>
+  <si>
+    <t>&lt;--- NON-STATIONARY</t>
+  </si>
+  <si>
+    <t>Complete Task</t>
+  </si>
+  <si>
+    <t>&lt;- non-stationary</t>
   </si>
 </sst>
 </file>
@@ -649,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -667,147 +698,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -818,6 +708,150 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1307,40 +1341,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1648,20 +1682,20 @@
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="E20" s="21" t="s">
+      <c r="C20" s="27"/>
+      <c r="E20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
@@ -1845,44 +1879,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="E5" s="21" t="s">
+      <c r="C5" s="27"/>
+      <c r="E5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
@@ -1931,13 +1965,13 @@
       <c r="F9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1955,11 +1989,11 @@
       <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1977,11 +2011,11 @@
       <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1999,11 +2033,11 @@
       <c r="F12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -2021,11 +2055,11 @@
       <c r="F13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -2043,11 +2077,11 @@
       <c r="F14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2067,378 +2101,371 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="H17" s="45" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="H17" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="43" t="s">
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="28" t="s">
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
       <c r="I27" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="50"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="28" t="s">
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="28" t="s">
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="50"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="28" t="s">
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="28" t="s">
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="50"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="28" t="s">
+      <c r="C42" s="46"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="50"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="28" t="s">
+      <c r="C45" s="46"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="33"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="36"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="28" t="s">
+      <c r="C48" s="46"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="30"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="33"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="36"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="B1:E3"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A18:F19"/>
-    <mergeCell ref="E33:G35"/>
-    <mergeCell ref="H9:L14"/>
-    <mergeCell ref="H17:L23"/>
-    <mergeCell ref="B27:D29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="E27:G29"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E25:G26"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:D50"/>
+    <mergeCell ref="E48:G50"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:D44"/>
+    <mergeCell ref="E42:G44"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="B45:D47"/>
     <mergeCell ref="E45:G47"/>
@@ -2448,17 +2475,24 @@
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="B39:D41"/>
     <mergeCell ref="E39:G41"/>
+    <mergeCell ref="E33:G35"/>
+    <mergeCell ref="H9:L14"/>
+    <mergeCell ref="H17:L23"/>
+    <mergeCell ref="B27:D29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="E27:G29"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:G26"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="B30:D32"/>
     <mergeCell ref="E30:G32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:D35"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:D50"/>
-    <mergeCell ref="E48:G50"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:D44"/>
-    <mergeCell ref="E42:G44"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="B1:E3"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2468,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E3D64C-300E-4A19-BD95-BC2D5FA126C3}">
   <dimension ref="A3:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,8 +2550,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="3"/>
@@ -2530,8 +2564,8 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2554,25 +2588,25 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="61" t="s">
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>67</v>
       </c>
       <c r="H6" s="3"/>
@@ -2580,23 +2614,23 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="61" t="s">
+      <c r="C7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="3"/>
@@ -2604,8 +2638,8 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2616,8 +2650,8 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -2646,70 +2680,70 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="61" t="s">
+      <c r="D10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="61" t="s">
+      <c r="G10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="61" t="s">
+      <c r="C11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="61" t="s">
+      <c r="G11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2720,8 +2754,8 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2750,70 +2784,70 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="61" t="s">
+      <c r="F14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="61" t="s">
+      <c r="D15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="61" t="s">
+      <c r="F15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="61" t="s">
+      <c r="I15" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2824,8 +2858,8 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="64" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2848,25 +2882,25 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="61" t="s">
+      <c r="C18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="3"/>
@@ -2874,23 +2908,23 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="61" t="s">
+      <c r="C19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="3"/>
@@ -2898,8 +2932,8 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2910,8 +2944,8 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="64" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -2932,22 +2966,22 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="61" t="s">
+      <c r="C22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>67</v>
       </c>
       <c r="G22" s="3"/>
@@ -2956,20 +2990,20 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="61" t="s">
+      <c r="D23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>67</v>
       </c>
       <c r="G23" s="3"/>
@@ -2978,8 +3012,8 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2990,8 +3024,8 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -3014,25 +3048,25 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="61" t="s">
+      <c r="D26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>70</v>
       </c>
       <c r="H26" s="3"/>
@@ -3040,23 +3074,23 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="61" t="s">
+      <c r="D27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="3"/>
@@ -3064,8 +3098,8 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -3076,11 +3110,11 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="64" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="18" t="s">
         <v>104</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -3104,66 +3138,66 @@
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="61" t="s">
+      <c r="C30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="61" t="s">
+      <c r="G30" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="14" t="s">
         <v>70</v>
       </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="60" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="61" t="s">
+      <c r="C31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="61" t="s">
+      <c r="E31" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="61" t="s">
+      <c r="G31" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="14" t="s">
         <v>71</v>
       </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="58"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -3174,92 +3208,1085 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="64" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="61" t="s">
+      <c r="E34" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>67</v>
       </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="62"/>
-      <c r="B35" s="63" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="61" t="s">
+      <c r="C35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>71</v>
       </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EE9E60-D5C8-447F-8943-A78868DE32A1}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="G1" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3">
+        <v>8</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="O8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="O20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="O24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="O28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" s="14"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="18"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="O32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q32" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="3"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q33" s="14"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="O36" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q36" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q37" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C39" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C40" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="I39:I40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>